--- a/howell_5.xlsx
+++ b/howell_5.xlsx
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH23</t>
+          <t>PH28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH47</t>
+          <t>PH89</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH68</t>
+          <t>PH72</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH66</t>
+          <t>PH45</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH73</t>
+          <t>PH98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH72</t>
+          <t>PH78</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH39</t>
+          <t>PH69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH73</t>
+          <t>PH28</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH22</t>
+          <t>PH59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH61</t>
+          <t>PH14</t>
         </is>
       </c>
       <c r="D6" s="4">

--- a/howell_5.xlsx
+++ b/howell_5.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 02, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 03, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH28</t>
+          <t>PH76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH89</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH72</t>
+          <t>PH12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH45</t>
+          <t>PH77</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH98</t>
+          <t>PH97</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH78</t>
+          <t>PH92</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH69</t>
+          <t>PH76</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH28</t>
+          <t>PH70</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH59</t>
+          <t>PH53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH14</t>
+          <t>PH17</t>
         </is>
       </c>
       <c r="D6" s="4">
